--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A1111-EEEC-4697-AA7C-59E2897ED5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,23 +97,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,18 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,48 +403,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>92.409090404799997</v>
+        <v>509.450781049</v>
       </c>
       <c r="C2">
-        <v>1.8550090838800001E-9</v>
+        <v>3.49889665453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>92409.090404799994</v>
+        <v>509450.781049</v>
       </c>
       <c r="C3">
-        <v>5.5650272516400001E-5</v>
+        <v>104966.8996359</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>341331.45722820982</v>
+        <v>1881758.349960691</v>
       </c>
       <c r="C4">
-        <v>2.5573247980823871E-4</v>
+        <v>482359.642241833</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6826.6291445641946</v>
+        <v>37635.16699921383</v>
       </c>
       <c r="C5">
-        <v>5.1146495961647742E-6</v>
+        <v>9647.192844836662</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>509.450781049</v>
+        <v>170.338511186</v>
       </c>
       <c r="C2">
-        <v>3.49889665453</v>
+        <v>2.58227967094e-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>509450.781049</v>
+        <v>170338.511186</v>
       </c>
       <c r="C3">
-        <v>104966.8996359</v>
+        <v>0.7746839012819999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1881758.349960691</v>
+        <v>629179.3587677283</v>
       </c>
       <c r="C4">
-        <v>482359.642241833</v>
+        <v>3.559943665756238</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37635.16699921383</v>
+        <v>12583.58717535457</v>
       </c>
       <c r="C5">
-        <v>9647.192844836662</v>
+        <v>0.07119887331512477</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>170.338511186</v>
+        <v>11.8853147177</v>
       </c>
       <c r="C2">
-        <v>2.58227967094e-05</v>
+        <v>5.08868632379e-08</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>170338.511186</v>
+        <v>11885.3147177</v>
       </c>
       <c r="C3">
-        <v>0.7746839012819999</v>
+        <v>0.001526605897137</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>629179.3587677283</v>
+        <v>43900.78697276849</v>
       </c>
       <c r="C4">
-        <v>3.559943665756238</v>
+        <v>0.007015288409408513</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12583.58717535457</v>
+        <v>878.0157394553698</v>
       </c>
       <c r="C5">
-        <v>0.07119887331512477</v>
+        <v>0.0001403057681881703</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A1111-EEEC-4697-AA7C-59E2897ED5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,23 +97,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,18 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,48 +403,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>92.409090404799997</v>
+        <v>11.8853147177</v>
       </c>
       <c r="C2">
-        <v>1.8550090838800001E-9</v>
+        <v>5.08868632379e-08</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>92409.090404799994</v>
+        <v>11885.3147177</v>
       </c>
       <c r="C3">
-        <v>5.5650272516400001E-5</v>
+        <v>0.001526605897137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>341331.45722820982</v>
+        <v>43900.78697276849</v>
       </c>
       <c r="C4">
-        <v>2.5573247980823871E-4</v>
+        <v>0.007015288409408513</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6826.6291445641946</v>
+        <v>878.0157394553698</v>
       </c>
       <c r="C5">
-        <v>5.1146495961647742E-6</v>
+        <v>0.0001403057681881703</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.8853147177</v>
+        <v>11.3136349885</v>
       </c>
       <c r="C2">
-        <v>5.08868632379e-08</v>
+        <v>1.44072145615e-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11885.3147177</v>
+        <v>11313.6349885</v>
       </c>
       <c r="C3">
-        <v>0.001526605897137</v>
+        <v>0.0432216436845</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>43900.78697276849</v>
+        <v>41789.17355702246</v>
       </c>
       <c r="C4">
-        <v>0.007015288409408513</v>
+        <v>0.198618580305567</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>878.0157394553698</v>
+        <v>835.7834711404491</v>
       </c>
       <c r="C5">
-        <v>0.0001403057681881703</v>
+        <v>0.003972371606111341</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.8853147177</v>
+        <v>11.2996900593</v>
       </c>
       <c r="C2">
-        <v>5.08868632379e-08</v>
+        <v>2.29034551968e-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11885.3147177</v>
+        <v>11299.6900593</v>
       </c>
       <c r="C3">
-        <v>0.001526605897137</v>
+        <v>0.0687103655904</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>43900.78697276849</v>
+        <v>41737.66517203641</v>
       </c>
       <c r="C4">
-        <v>0.007015288409408513</v>
+        <v>0.3157481785158446</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>878.0157394553698</v>
+        <v>834.7533034407282</v>
       </c>
       <c r="C5">
-        <v>0.0001403057681881703</v>
+        <v>0.006314963570316892</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.3136349885</v>
+        <v>10.3663186693</v>
       </c>
       <c r="C2">
-        <v>1.44072145615e-06</v>
+        <v>4.78482478082e-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11313.6349885</v>
+        <v>10366.3186693</v>
       </c>
       <c r="C3">
-        <v>0.0432216436845</v>
+        <v>0.1435447434246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41789.17355702246</v>
+        <v>38290.07126879341</v>
       </c>
       <c r="C4">
-        <v>0.198618580305567</v>
+        <v>0.6596383366962356</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>835.7834711404491</v>
+        <v>765.8014253758683</v>
       </c>
       <c r="C5">
-        <v>0.003972371606111341</v>
+        <v>0.01319276673392471</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.2996900593</v>
+        <v>10.260412818</v>
       </c>
       <c r="C2">
-        <v>2.29034551968e-06</v>
+        <v>1.56220211712e-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11299.6900593</v>
+        <v>10260.412818</v>
       </c>
       <c r="C3">
-        <v>0.0687103655904</v>
+        <v>0.0468660635136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41737.66517203641</v>
+        <v>37898.8868258466</v>
       </c>
       <c r="C4">
-        <v>0.3157481785158446</v>
+        <v>0.2153659649672218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>834.7533034407282</v>
+        <v>757.9777365169321</v>
       </c>
       <c r="C5">
-        <v>0.006314963570316892</v>
+        <v>0.004307319299344435</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10.3663186693</v>
+        <v>11.2225601905</v>
       </c>
       <c r="C2">
-        <v>4.78482478082e-06</v>
+        <v>2.74522491327e-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10366.3186693</v>
+        <v>11222.5601905</v>
       </c>
       <c r="C3">
-        <v>0.1435447434246</v>
+        <v>0.08235674739809999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>38290.07126879341</v>
+        <v>41452.77057564985</v>
       </c>
       <c r="C4">
-        <v>0.6596383366962356</v>
+        <v>0.3784580791558588</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>765.8014253758683</v>
+        <v>829.0554115129971</v>
       </c>
       <c r="C5">
-        <v>0.01319276673392471</v>
+        <v>0.007569161583117176</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.2225601905</v>
+        <v>27.2934882387</v>
       </c>
       <c r="C2">
-        <v>2.74522491327e-06</v>
+        <v>6.63930749981e-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11222.5601905</v>
+        <v>27293.4882387</v>
       </c>
       <c r="C3">
-        <v>0.08235674739809999</v>
+        <v>1.991792249943</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41452.77057564985</v>
+        <v>54586.9764774</v>
       </c>
       <c r="C4">
-        <v>0.3784580791558588</v>
+        <v>5.975376749829</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>829.0554115129971</v>
+        <v>1091.739529548</v>
       </c>
       <c r="C5">
-        <v>0.007569161583117176</v>
+        <v>0.11950753499658</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10.260412818</v>
+        <v>27.2894359995</v>
       </c>
       <c r="C2">
-        <v>1.56220211712e-06</v>
+        <v>5.99444306694e-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10260.412818</v>
+        <v>27289.4359995</v>
       </c>
       <c r="C3">
-        <v>0.0468660635136</v>
+        <v>1.798332920082</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>37898.8868258466</v>
+        <v>54578.871999</v>
       </c>
       <c r="C4">
-        <v>0.2153659649672218</v>
+        <v>5.394998760246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>757.9777365169321</v>
+        <v>1091.57743998</v>
       </c>
       <c r="C5">
-        <v>0.004307319299344435</v>
+        <v>0.10789997520492</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>27.2894359995</v>
+        <v>81.14510322077447</v>
       </c>
       <c r="C2">
-        <v>5.99444306694e-05</v>
+        <v>0.001557802652697692</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>27289.4359995</v>
+        <v>81145.10322077447</v>
       </c>
       <c r="C3">
-        <v>1.798332920082</v>
+        <v>46.73407958093076</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>54578.871999</v>
+        <v>162290.2064415489</v>
       </c>
       <c r="C4">
-        <v>5.394998760246</v>
+        <v>140.2022387427923</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1091.57743998</v>
+        <v>3245.804128830979</v>
       </c>
       <c r="C5">
-        <v>0.10789997520492</v>
+        <v>2.804044774855845</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>81.14510322077447</v>
+        <v>171.934662575</v>
       </c>
       <c r="C2">
-        <v>0.001557802652697692</v>
+        <v>20.8375089279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>81145.10322077447</v>
+        <v>171934.662575</v>
       </c>
       <c r="C3">
-        <v>46.73407958093076</v>
+        <v>20837.5089279</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>162290.2064415489</v>
+        <v>343869.32515</v>
       </c>
       <c r="C4">
-        <v>140.2022387427923</v>
+        <v>62512.5267837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3245.804128830979</v>
+        <v>6877.386503</v>
       </c>
       <c r="C5">
-        <v>2.804044774855845</v>
+        <v>1250.250535674</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>171.934662575</v>
+        <v>171.831087874</v>
       </c>
       <c r="C2">
-        <v>20.8375089279</v>
+        <v>21.0028877056</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>171934.662575</v>
+        <v>171831.087874</v>
       </c>
       <c r="C3">
-        <v>20837.5089279</v>
+        <v>21002.8877056</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>343869.32515</v>
+        <v>343662.175748</v>
       </c>
       <c r="C4">
-        <v>62512.5267837</v>
+        <v>63008.66311679999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6877.386503</v>
+        <v>6873.24351496</v>
       </c>
       <c r="C5">
-        <v>1250.250535674</v>
+        <v>1260.173262336</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>171.831087874</v>
+        <v>132.947328740405</v>
       </c>
       <c r="C2">
-        <v>21.0028877056</v>
+        <v>67.58067357431737</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>171831.087874</v>
+        <v>132947.328740405</v>
       </c>
       <c r="C3">
-        <v>21002.8877056</v>
+        <v>67580.67357431738</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>343662.175748</v>
+        <v>265894.65748081</v>
       </c>
       <c r="C4">
-        <v>63008.66311679999</v>
+        <v>202742.0207229521</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6873.24351496</v>
+        <v>5317.8931496162</v>
       </c>
       <c r="C5">
-        <v>1260.173262336</v>
+        <v>4054.840414459043</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>160.9981228121069</v>
+        <v>163.680235902</v>
       </c>
       <c r="C2">
-        <v>0.0001384030008732996</v>
+        <v>6.913746076069999e-08</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>160998.1228121069</v>
+        <v>163680.235902</v>
       </c>
       <c r="C3">
-        <v>1.384030008732996</v>
+        <v>0.0006913746076069999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>321996.2456242138</v>
+        <v>327360.471804</v>
       </c>
       <c r="C4">
-        <v>4.152090026198989</v>
+        <v>0.002074123822820999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6439.924912484275</v>
+        <v>6547.209436079999</v>
       </c>
       <c r="C5">
-        <v>0.08304180052397979</v>
+        <v>4.148247645641999e-05</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>163.680235902</v>
+        <v>146.925420661</v>
       </c>
       <c r="C2">
-        <v>6.913746076069999e-08</v>
+        <v>2.89581149031e-07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>163680.235902</v>
+        <v>146925.420661</v>
       </c>
       <c r="C3">
-        <v>0.0006913746076069999</v>
+        <v>0.00289581149031</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>327360.471804</v>
+        <v>293850.841322</v>
       </c>
       <c r="C4">
-        <v>0.002074123822820999</v>
+        <v>0.008687434470930001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6547.209436079999</v>
+        <v>5877.016826440001</v>
       </c>
       <c r="C5">
-        <v>4.148247645641999e-05</v>
+        <v>0.0001737486894186</v>
       </c>
     </row>
   </sheetData>
